--- a/source/en/talent_ shaft-specialist.xlsx
+++ b/source/en/talent_ shaft-specialist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Tipo</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>You gain the following benefits:</t>
-  </si>
-  <si>
-    <t>Increase your Strength or Dexterity score by 1, to a maximum of 20.</t>
   </si>
   <si>
     <t>While you are holding a quarterstaff, a spear, a glaive, an helberd or a pike with two hands, you gain a +1 bonus to Armor Class.</t>
@@ -528,17 +525,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="6"/>
@@ -7490,13 +7481,6 @@
       <c r="C999" s="7"/>
       <c r="D999" s="6"/>
       <c r="E999" s="7"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="7"/>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7519,13 +7503,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -12567,21 +12551,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>1.0</v>
